--- a/src/test/resources/xls/demo.xlsx
+++ b/src/test/resources/xls/demo.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20394"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A6C4C9-8BC0-4808-BEC7-FAD91032B517}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF1C929-48BE-48C0-920D-2110EF4B4102}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GSMArena" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
   <si>
     <t>Execute</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t>3GB RAM</t>
   </si>
   <si>
     <t>12000mAh</t>
@@ -329,7 +326,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{54382045-ACAB-4016-8E48-6E3B48DC3618}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -353,9 +350,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -393,7 +390,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -499,7 +496,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -675,17 +672,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -734,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>28</v>
@@ -761,7 +758,7 @@
         <v>27</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>31</v>
@@ -787,11 +784,8 @@
       <c r="F4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -806,14 +800,14 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -893,16 +887,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159BBBDB-2C19-4029-8CF8-DF830F70E1A1}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -913,10 +907,10 @@
         <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -924,13 +918,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -938,13 +932,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -952,13 +946,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="D4" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -966,13 +960,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -980,13 +974,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -994,13 +988,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1008,13 +1002,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1022,13 +1016,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1036,13 +1030,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:4">
